--- a/Data/Input/Marksheet Data__Kedar Tawal.xlsx
+++ b/Data/Input/Marksheet Data__Kedar Tawal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEDAR\OneDrive\Documents\UiPath\Students_Marksheet\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF51AB0-2C05-4A46-A33A-A0FDBC6ECC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D35505-355E-4E1A-906C-773D791871DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="0" xr2:uid="{88CB20BF-360E-4A40-BAF5-E667AE110243}"/>
   </x:bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -182,103 +182,76 @@
     <x:t>C</x:t>
   </x:si>
   <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aniket</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aniket@xyz.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arati</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arati@xyz.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akshay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akshay@xyz,com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sanjay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahesh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahesh@xyz.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADDITION OF ALL SUBJECTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CALCULATE PERCENTAGE UPTO TWO DECIMAL POINT ALLOW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A = &gt;80%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASSIGN VALUES AS PER GRADE EX: FOR GRADE A GIVE EXCELLENT AS REMARK.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COUNT TOTAL NO. OF ATKT</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ASSIGN RANKS EVERYONE FROM HIGEST TO LOWEST </x:t>
+  </x:si>
+  <x:si>
+    <x:t>B = &gt;60% and &lt;80%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C = &gt;40% and &lt;60%</x:t>
+  </x:si>
+  <x:si>
     <x:t>AVERAGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aniket</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aniket@xyz.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arati</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arati@xyz.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Akshay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Akshay@xyz,com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>296</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sanjay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahesh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahesh@xyz.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADDITION OF ALL SUBJECTS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CALCULATE PERCENTAGE UPTO TWO DECIMAL POINT ALLOW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A = &gt;80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASSIGN VALUES AS PER GRADE EX: FOR GRADE A GIVE EXCELLENT AS REMARK.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COUNT TOTAL NO. OF ATKT</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ASSIGN RANKS EVERYONE FROM HIGEST TO LOWEST </x:t>
-  </x:si>
-  <x:si>
-    <x:t>B = &gt;60% and &lt;80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C = &gt;40% and &lt;60%</x:t>
   </x:si>
   <x:si>
     <x:t>ANY ATKT =  F if &lt;40%</x:t>
@@ -425,23 +398,23 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="843">
+  <x:cellStyleXfs count="395">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -475,15 +448,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -517,15 +490,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -559,15 +532,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -601,15 +574,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -643,15 +616,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -685,15 +658,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -727,15 +700,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -769,15 +742,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -811,15 +784,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -853,15 +826,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -895,15 +868,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -937,15 +910,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -979,15 +952,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1021,15 +994,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1063,15 +1036,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1105,15 +1078,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1147,15 +1120,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1189,15 +1162,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1231,15 +1204,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1273,15 +1246,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1315,15 +1288,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1357,15 +1330,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1399,15 +1372,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1441,15 +1414,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1483,15 +1456,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1525,15 +1498,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1567,1357 +1540,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2957,16 +1586,16 @@
   <x:cellXfs count="35">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -3005,20 +1634,20 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3393,7 +2022,7 @@
   <x:dimension ref="A1:Q14"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="L2" sqref="L2 L2:L2"/>
+      <x:selection activeCell="L1" sqref="L1 L1:L1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3418,583 +2047,531 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:17" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="21" t="s">
+      <x:c r="A1" s="19" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="21" t="s">
+      <x:c r="B1" s="19" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="21" t="s">
+      <x:c r="C1" s="19" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="21" t="s">
+      <x:c r="D1" s="19" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="21" t="s">
+      <x:c r="E1" s="19" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="21" t="s">
+      <x:c r="F1" s="19" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="21" t="s">
+      <x:c r="G1" s="19" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="21" t="s">
+      <x:c r="H1" s="19" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="21" t="s">
+      <x:c r="I1" s="19" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="21" t="s">
+      <x:c r="J1" s="19" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="21" t="s">
+      <x:c r="K1" s="19" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="21" t="s">
+      <x:c r="L1" s="19" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="21" t="s">
+      <x:c r="M1" s="19" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="22" t="s">
+      <x:c r="N1" s="20" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="21" t="s">
+      <x:c r="O1" s="19" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="P1" s="21" t="s">
+      <x:c r="P1" s="19" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="Q1" s="21" t="s">
+      <x:c r="Q1" s="19" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="20" t="s">
+      <x:c r="A2" s="21" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B2" s="19" t="n">
+      <x:c r="B2" s="22" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D2" s="19" t="s">
+      <x:c r="D2" s="22" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E2" s="19" t="n">
+      <x:c r="E2" s="22" t="n">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="F2" s="19" t="n">
+      <x:c r="F2" s="22" t="n">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="G2" s="19" t="n">
+      <x:c r="G2" s="22" t="n">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="H2" s="19" t="n">
+      <x:c r="H2" s="22" t="n">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="I2" s="19" t="n">
+      <x:c r="I2" s="22" t="n">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="J2" s="19" t="n">
+      <x:c r="J2" s="22" t="n">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="K2" s="19" t="n">
+      <x:c r="K2" s="22" t="n">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="L2" s="19" t="s">
+      <x:c r="L2" s="22" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="M2" s="19" t="s">
+      <x:c r="M2" s="22" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="N2" s="19" t="s">
+      <x:c r="N2" s="22" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="O2" s="19" t="s">
+      <x:c r="O2" s="22" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="P2" s="19" t="s">
+      <x:c r="P2" s="22" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Q2" s="19" t="s">
+      <x:c r="Q2" s="22" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="20" t="s">
+      <x:c r="A3" s="21" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B3" s="19" t="n">
+      <x:c r="B3" s="22" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D3" s="19" t="s">
+      <x:c r="D3" s="22" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E3" s="19" t="n">
+      <x:c r="E3" s="22" t="n">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="F3" s="19" t="n">
+      <x:c r="F3" s="22" t="n">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G3" s="19" t="n">
+      <x:c r="G3" s="22" t="n">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="H3" s="19" t="n">
+      <x:c r="H3" s="22" t="n">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="I3" s="19" t="n">
+      <x:c r="I3" s="22" t="n">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="J3" s="19" t="n">
+      <x:c r="J3" s="22" t="n">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="K3" s="19" t="n">
+      <x:c r="K3" s="22" t="n">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="L3" s="19" t="s">
+      <x:c r="L3" s="22" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="M3" s="19" t="s">
+      <x:c r="M3" s="22" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N3" s="19" t="s">
+      <x:c r="N3" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="O3" s="19" t="s">
+      <x:c r="O3" s="22" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="P3" s="19" t="s">
+      <x:c r="P3" s="22" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Q3" s="19" t="s">
+      <x:c r="Q3" s="22" t="s">
         <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="20" t="s">
+      <x:c r="A4" s="21" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B4" s="19" t="n">
+      <x:c r="B4" s="22" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="D4" s="19" t="s">
+      <x:c r="D4" s="22" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E4" s="19" t="n">
+      <x:c r="E4" s="22" t="n">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="F4" s="19" t="n">
+      <x:c r="F4" s="22" t="n">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="G4" s="19" t="n">
+      <x:c r="G4" s="22" t="n">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="H4" s="19" t="n">
+      <x:c r="H4" s="22" t="n">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="I4" s="19" t="n">
+      <x:c r="I4" s="22" t="n">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="J4" s="19" t="n">
+      <x:c r="J4" s="22" t="n">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="K4" s="19" t="n">
+      <x:c r="K4" s="22" t="n">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="L4" s="19" t="s">
+      <x:c r="L4" s="22" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="M4" s="19" t="s">
+      <x:c r="M4" s="22" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="N4" s="19" t="s">
+      <x:c r="N4" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="O4" s="19" t="s">
+      <x:c r="O4" s="22" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="P4" s="19" t="s">
+      <x:c r="P4" s="22" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Q4" s="19" t="s">
+      <x:c r="Q4" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="20" t="s">
+      <x:c r="A5" s="21" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B5" s="19" t="n">
+      <x:c r="B5" s="22" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D5" s="19" t="s">
+      <x:c r="D5" s="22" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E5" s="19" t="n">
+      <x:c r="E5" s="22" t="n">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="F5" s="19" t="n">
+      <x:c r="F5" s="22" t="n">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="G5" s="19" t="n">
+      <x:c r="G5" s="22" t="n">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="H5" s="19" t="n">
+      <x:c r="H5" s="22" t="n">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="I5" s="19" t="n">
+      <x:c r="I5" s="22" t="n">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="J5" s="19" t="n">
+      <x:c r="J5" s="22" t="n">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="K5" s="19" t="n">
+      <x:c r="K5" s="22" t="n">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="L5" s="19" t="s">
+      <x:c r="L5" s="22" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="M5" s="19" t="s">
+      <x:c r="M5" s="22" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="N5" s="19" t="s">
+      <x:c r="N5" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="O5" s="19" t="s">
+      <x:c r="O5" s="22" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="P5" s="19" t="s">
+      <x:c r="P5" s="22" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Q5" s="19" t="s">
+      <x:c r="Q5" s="22" t="s">
         <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="20" t="s">
+      <x:c r="A6" s="21" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="B6" s="19" t="n">
+      <x:c r="B6" s="22" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D6" s="19" t="s">
+      <x:c r="D6" s="22" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E6" s="19" t="n">
+      <x:c r="E6" s="22" t="n">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="F6" s="19" t="n">
+      <x:c r="F6" s="22" t="n">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G6" s="19" t="n">
+      <x:c r="G6" s="22" t="n">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="H6" s="19" t="n">
+      <x:c r="H6" s="22" t="n">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="I6" s="19" t="n">
+      <x:c r="I6" s="22" t="n">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="J6" s="19" t="n">
+      <x:c r="J6" s="22" t="n">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="K6" s="19" t="n">
+      <x:c r="K6" s="22" t="n">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="L6" s="19" t="s">
+      <x:c r="L6" s="22" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="M6" s="19" t="s">
+      <x:c r="M6" s="22" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="N6" s="19" t="s">
+      <x:c r="N6" s="22" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="O6" s="19" t="s">
+      <x:c r="O6" s="22" t="s"/>
+      <x:c r="P6" s="22" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Q6" s="22" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="P6" s="19" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="Q6" s="19" t="s">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="20" t="s">
+      <x:c r="A7" s="21" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B7" s="22" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C7" s="23" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B7" s="19" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C7" s="23" t="s">
+      <x:c r="D7" s="22" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E7" s="22" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F7" s="22" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G7" s="22" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H7" s="22" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I7" s="22" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J7" s="22" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="K7" s="22" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="L7" s="22" t="s"/>
+      <x:c r="M7" s="22" t="s"/>
+      <x:c r="N7" s="22" t="s"/>
+      <x:c r="O7" s="22" t="s"/>
+      <x:c r="P7" s="22" t="s"/>
+      <x:c r="Q7" s="22" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="D7" s="19" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E7" s="19" t="n">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F7" s="19" t="n">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G7" s="19" t="n">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H7" s="19" t="n">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I7" s="19" t="n">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J7" s="19" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="K7" s="19" t="n">
-        <x:v>600</x:v>
-      </x:c>
-      <x:c r="L7" s="19" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="M7" s="19" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="N7" s="19" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="O7" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="P7" s="19" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="Q7" s="19" t="s">
-        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="20" t="s">
+      <x:c r="A8" s="21" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B8" s="22" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C8" s="18" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D8" s="22" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E8" s="22" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F8" s="22" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G8" s="22" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H8" s="22" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I8" s="22" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="J8" s="22" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="K8" s="22" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="L8" s="22" t="s"/>
+      <x:c r="M8" s="22" t="s"/>
+      <x:c r="N8" s="22" t="s"/>
+      <x:c r="O8" s="22" t="s"/>
+      <x:c r="P8" s="22" t="s"/>
+      <x:c r="Q8" s="22" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="B8" s="19" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C8" s="18" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D8" s="19" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E8" s="19" t="n">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F8" s="19" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G8" s="19" t="n">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H8" s="19" t="n">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I8" s="19" t="n">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J8" s="19" t="n">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="K8" s="19" t="n">
-        <x:v>600</x:v>
-      </x:c>
-      <x:c r="L8" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="M8" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="N8" s="19" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="O8" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="P8" s="19" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="Q8" s="19" t="s">
-        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="20" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B9" s="19" t="n">
+      <x:c r="A9" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B9" s="22" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D9" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D9" s="22" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E9" s="19" t="n">
+      <x:c r="E9" s="22" t="n">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="F9" s="19" t="n">
+      <x:c r="F9" s="22" t="n">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="G9" s="19" t="n">
+      <x:c r="G9" s="22" t="n">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="H9" s="19" t="n">
+      <x:c r="H9" s="22" t="n">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="I9" s="19" t="n">
+      <x:c r="I9" s="22" t="n">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="J9" s="19" t="n">
+      <x:c r="J9" s="22" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="K9" s="19" t="n">
+      <x:c r="K9" s="22" t="n">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="L9" s="19" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="M9" s="19" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="N9" s="19" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="O9" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="P9" s="19" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="Q9" s="19" t="s">
-        <x:v>63</x:v>
+      <x:c r="L9" s="22" t="s"/>
+      <x:c r="M9" s="22" t="s"/>
+      <x:c r="N9" s="22" t="s"/>
+      <x:c r="O9" s="22" t="s"/>
+      <x:c r="P9" s="22" t="s"/>
+      <x:c r="Q9" s="22" t="s">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B10" s="19" t="n">
+      <x:c r="A10" s="21" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B10" s="22" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D10" s="19" t="s">
+      <x:c r="D10" s="22" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E10" s="19" t="n">
+      <x:c r="E10" s="22" t="n">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="F10" s="19" t="n">
+      <x:c r="F10" s="22" t="n">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="G10" s="19" t="n">
+      <x:c r="G10" s="22" t="n">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="H10" s="19" t="n">
+      <x:c r="H10" s="22" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="I10" s="19" t="n">
+      <x:c r="I10" s="22" t="n">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="J10" s="19" t="n">
+      <x:c r="J10" s="22" t="n">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="K10" s="19" t="n">
+      <x:c r="K10" s="22" t="n">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="L10" s="19" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="M10" s="19" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="N10" s="19" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="O10" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="P10" s="19" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Q10" s="19" t="s">
-        <x:v>67</x:v>
+      <x:c r="L10" s="22" t="s"/>
+      <x:c r="M10" s="22" t="s"/>
+      <x:c r="N10" s="22" t="s"/>
+      <x:c r="O10" s="22" t="s"/>
+      <x:c r="P10" s="22" t="s"/>
+      <x:c r="Q10" s="22" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="20" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B11" s="19" t="n">
+      <x:c r="A11" s="21" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B11" s="22" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D11" s="19" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D11" s="22" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E11" s="19" t="n">
+      <x:c r="E11" s="22" t="n">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="F11" s="19" t="n">
+      <x:c r="F11" s="22" t="n">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G11" s="19" t="n">
+      <x:c r="G11" s="22" t="n">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="H11" s="19" t="n">
+      <x:c r="H11" s="22" t="n">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="I11" s="19" t="n">
+      <x:c r="I11" s="22" t="n">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="J11" s="19" t="n">
+      <x:c r="J11" s="22" t="n">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="K11" s="19" t="n">
+      <x:c r="K11" s="22" t="n">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="L11" s="19" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="M11" s="19" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="N11" s="19" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="O11" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="P11" s="19" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="Q11" s="19" t="s">
-        <x:v>72</x:v>
+      <x:c r="L11" s="22" t="s"/>
+      <x:c r="M11" s="22" t="s"/>
+      <x:c r="N11" s="22" t="s"/>
+      <x:c r="O11" s="22" t="s"/>
+      <x:c r="P11" s="22" t="s"/>
+      <x:c r="Q11" s="22" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4069,29 +2646,29 @@
     </x:row>
     <x:row r="3" spans="1:7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="B3" s="30" t="s">
-        <x:v>73</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C3" s="31" t="s">
-        <x:v>74</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D3" s="30" t="s">
-        <x:v>75</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E3" s="30" t="s">
-        <x:v>76</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F3" s="31" t="s">
-        <x:v>77</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G3" s="31" t="s">
-        <x:v>78</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <x:c r="B4" s="25" t="s"/>
       <x:c r="C4" s="26" t="s"/>
       <x:c r="D4" s="25" t="s">
-        <x:v>79</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E4" s="27" t="s">
         <x:v>31</x:v>
@@ -4103,10 +2680,10 @@
       <x:c r="B5" s="25" t="s"/>
       <x:c r="C5" s="26" t="s"/>
       <x:c r="D5" s="25" t="s">
-        <x:v>80</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E5" s="27" t="s">
-        <x:v>48</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F5" s="26" t="s"/>
       <x:c r="G5" s="26" t="s"/>
@@ -4115,10 +2692,10 @@
       <x:c r="B6" s="32" t="s"/>
       <x:c r="C6" s="33" t="s"/>
       <x:c r="D6" s="34" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E6" s="34" t="s">
-        <x:v>82</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F6" s="33" t="s"/>
       <x:c r="G6" s="33" t="s"/>
